--- a/описание REST.xlsx
+++ b/описание REST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Адрес</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">меняем </t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
 </sst>
 </file>
@@ -192,9 +195,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +213,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,15 +236,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,134 +531,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
